--- a/Assets/xlsx/EtcStrs.xlsx
+++ b/Assets/xlsx/EtcStrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A6CC9-FB12-4A49-AC21-F33336C2AFA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F90BF3-960F-4573-9E7C-8811A7B2A8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9508,7 +9508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1049" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD1107"/>
+      <selection pane="bottomLeft" activeCell="E1057" sqref="E1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
